--- a/po_analysis_by_asin/B09J6BWK2Z_po_data.xlsx
+++ b/po_analysis_by_asin/B09J6BWK2Z_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,9 +452,145 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45369</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B2" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B19" t="n">
         <v>24</v>
       </c>
     </row>
@@ -469,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,9 +627,73 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45352</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44985.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45107.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45138.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45169.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45199.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B10" t="n">
         <v>24</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B09J6BWK2Z_po_data.xlsx
+++ b/po_analysis_by_asin/B09J6BWK2Z_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,14 +586,6 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45375.99999999999</v>
-      </c>
-      <c r="B19" t="n">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -605,7 +597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -689,14 +681,6 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45382.99999999999</v>
-      </c>
-      <c r="B10" t="n">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/po_analysis_by_asin/B09J6BWK2Z_po_data.xlsx
+++ b/po_analysis_by_asin/B09J6BWK2Z_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -613,7 +614,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -679,6 +680,397 @@
       </c>
       <c r="B9" t="n">
         <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>271</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-55.13763989174472</v>
+      </c>
+      <c r="D2" t="n">
+        <v>554.4275685137346</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>265</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-38.15573950184186</v>
+      </c>
+      <c r="D3" t="n">
+        <v>538.7547594048244</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>258</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-38.02268457684645</v>
+      </c>
+      <c r="D4" t="n">
+        <v>552.6573645122941</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>252</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-46.07650345923607</v>
+      </c>
+      <c r="D5" t="n">
+        <v>515.4744164343588</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>128</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-157.5686566586443</v>
+      </c>
+      <c r="D6" t="n">
+        <v>403.2370792667707</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>115</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-170.8659896494204</v>
+      </c>
+      <c r="D7" t="n">
+        <v>410.8839338789634</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>109</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-174.8947452384363</v>
+      </c>
+      <c r="D8" t="n">
+        <v>388.6255532829865</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>89</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-196.9515357021313</v>
+      </c>
+      <c r="D9" t="n">
+        <v>387.7753190401969</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>76</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-218.9691249849643</v>
+      </c>
+      <c r="D10" t="n">
+        <v>389.6228005158278</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>63</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-245.824511191286</v>
+      </c>
+      <c r="D11" t="n">
+        <v>368.6695293323922</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>57</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-227.7030398033451</v>
+      </c>
+      <c r="D12" t="n">
+        <v>377.2351309234772</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>50</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-223.9823734956695</v>
+      </c>
+      <c r="D13" t="n">
+        <v>342.4890913947503</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>44</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-233.0196834987509</v>
+      </c>
+      <c r="D14" t="n">
+        <v>322.4072199292826</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>18</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-275.4066589160633</v>
+      </c>
+      <c r="D15" t="n">
+        <v>314.0861896215366</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>11</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-280.8840300462795</v>
+      </c>
+      <c r="D16" t="n">
+        <v>307.2214553822673</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-271.0006369628312</v>
+      </c>
+      <c r="D17" t="n">
+        <v>304.7481538662892</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-279.7837234825304</v>
+      </c>
+      <c r="D18" t="n">
+        <v>337.4126602928584</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-314.2118972178466</v>
+      </c>
+      <c r="D19" t="n">
+        <v>298.9577807784422</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-304.6082392522022</v>
+      </c>
+      <c r="D20" t="n">
+        <v>283.5466008284953</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-308.4090587863657</v>
+      </c>
+      <c r="D21" t="n">
+        <v>270.7957598751012</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-339.3594483184023</v>
+      </c>
+      <c r="D22" t="n">
+        <v>232.5318263357394</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45284.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-331.9595641943526</v>
+      </c>
+      <c r="D23" t="n">
+        <v>282.5122005904602</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-335.8318152405617</v>
+      </c>
+      <c r="D24" t="n">
+        <v>247.6017454149224</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-337.9181840350831</v>
+      </c>
+      <c r="D25" t="n">
+        <v>242.6827560581833</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-363.7686875247458</v>
+      </c>
+      <c r="D26" t="n">
+        <v>222.165938080634</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B09J6BWK2Z_po_data.xlsx
+++ b/po_analysis_by_asin/B09J6BWK2Z_po_data.xlsx
@@ -693,7 +693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,16 +712,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -730,12 +720,6 @@
       <c r="B2" t="n">
         <v>271</v>
       </c>
-      <c r="C2" t="n">
-        <v>-55.13763989174472</v>
-      </c>
-      <c r="D2" t="n">
-        <v>554.4275685137346</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -744,12 +728,6 @@
       <c r="B3" t="n">
         <v>265</v>
       </c>
-      <c r="C3" t="n">
-        <v>-38.15573950184186</v>
-      </c>
-      <c r="D3" t="n">
-        <v>538.7547594048244</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -758,12 +736,6 @@
       <c r="B4" t="n">
         <v>258</v>
       </c>
-      <c r="C4" t="n">
-        <v>-38.02268457684645</v>
-      </c>
-      <c r="D4" t="n">
-        <v>552.6573645122941</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -772,12 +744,6 @@
       <c r="B5" t="n">
         <v>252</v>
       </c>
-      <c r="C5" t="n">
-        <v>-46.07650345923607</v>
-      </c>
-      <c r="D5" t="n">
-        <v>515.4744164343588</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -786,12 +752,6 @@
       <c r="B6" t="n">
         <v>128</v>
       </c>
-      <c r="C6" t="n">
-        <v>-157.5686566586443</v>
-      </c>
-      <c r="D6" t="n">
-        <v>403.2370792667707</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -800,12 +760,6 @@
       <c r="B7" t="n">
         <v>115</v>
       </c>
-      <c r="C7" t="n">
-        <v>-170.8659896494204</v>
-      </c>
-      <c r="D7" t="n">
-        <v>410.8839338789634</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -814,12 +768,6 @@
       <c r="B8" t="n">
         <v>109</v>
       </c>
-      <c r="C8" t="n">
-        <v>-174.8947452384363</v>
-      </c>
-      <c r="D8" t="n">
-        <v>388.6255532829865</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -828,12 +776,6 @@
       <c r="B9" t="n">
         <v>89</v>
       </c>
-      <c r="C9" t="n">
-        <v>-196.9515357021313</v>
-      </c>
-      <c r="D9" t="n">
-        <v>387.7753190401969</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -842,12 +784,6 @@
       <c r="B10" t="n">
         <v>76</v>
       </c>
-      <c r="C10" t="n">
-        <v>-218.9691249849643</v>
-      </c>
-      <c r="D10" t="n">
-        <v>389.6228005158278</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -856,12 +792,6 @@
       <c r="B11" t="n">
         <v>63</v>
       </c>
-      <c r="C11" t="n">
-        <v>-245.824511191286</v>
-      </c>
-      <c r="D11" t="n">
-        <v>368.6695293323922</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -870,12 +800,6 @@
       <c r="B12" t="n">
         <v>57</v>
       </c>
-      <c r="C12" t="n">
-        <v>-227.7030398033451</v>
-      </c>
-      <c r="D12" t="n">
-        <v>377.2351309234772</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -884,12 +808,6 @@
       <c r="B13" t="n">
         <v>50</v>
       </c>
-      <c r="C13" t="n">
-        <v>-223.9823734956695</v>
-      </c>
-      <c r="D13" t="n">
-        <v>342.4890913947503</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -898,12 +816,6 @@
       <c r="B14" t="n">
         <v>44</v>
       </c>
-      <c r="C14" t="n">
-        <v>-233.0196834987509</v>
-      </c>
-      <c r="D14" t="n">
-        <v>322.4072199292826</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -912,12 +824,6 @@
       <c r="B15" t="n">
         <v>18</v>
       </c>
-      <c r="C15" t="n">
-        <v>-275.4066589160633</v>
-      </c>
-      <c r="D15" t="n">
-        <v>314.0861896215366</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -926,12 +832,6 @@
       <c r="B16" t="n">
         <v>11</v>
       </c>
-      <c r="C16" t="n">
-        <v>-280.8840300462795</v>
-      </c>
-      <c r="D16" t="n">
-        <v>307.2214553822673</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -940,12 +840,6 @@
       <c r="B17" t="n">
         <v>5</v>
       </c>
-      <c r="C17" t="n">
-        <v>-271.0006369628312</v>
-      </c>
-      <c r="D17" t="n">
-        <v>304.7481538662892</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -954,12 +848,6 @@
       <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="C18" t="n">
-        <v>-279.7837234825304</v>
-      </c>
-      <c r="D18" t="n">
-        <v>337.4126602928584</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -968,12 +856,6 @@
       <c r="B19" t="n">
         <v>0</v>
       </c>
-      <c r="C19" t="n">
-        <v>-314.2118972178466</v>
-      </c>
-      <c r="D19" t="n">
-        <v>298.9577807784422</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -982,12 +864,6 @@
       <c r="B20" t="n">
         <v>0</v>
       </c>
-      <c r="C20" t="n">
-        <v>-304.6082392522022</v>
-      </c>
-      <c r="D20" t="n">
-        <v>283.5466008284953</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -996,12 +872,6 @@
       <c r="B21" t="n">
         <v>0</v>
       </c>
-      <c r="C21" t="n">
-        <v>-308.4090587863657</v>
-      </c>
-      <c r="D21" t="n">
-        <v>270.7957598751012</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1010,12 +880,6 @@
       <c r="B22" t="n">
         <v>0</v>
       </c>
-      <c r="C22" t="n">
-        <v>-339.3594483184023</v>
-      </c>
-      <c r="D22" t="n">
-        <v>232.5318263357394</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1024,12 +888,6 @@
       <c r="B23" t="n">
         <v>0</v>
       </c>
-      <c r="C23" t="n">
-        <v>-331.9595641943526</v>
-      </c>
-      <c r="D23" t="n">
-        <v>282.5122005904602</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1038,12 +896,6 @@
       <c r="B24" t="n">
         <v>0</v>
       </c>
-      <c r="C24" t="n">
-        <v>-335.8318152405617</v>
-      </c>
-      <c r="D24" t="n">
-        <v>247.6017454149224</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1052,12 +904,6 @@
       <c r="B25" t="n">
         <v>0</v>
       </c>
-      <c r="C25" t="n">
-        <v>-337.9181840350831</v>
-      </c>
-      <c r="D25" t="n">
-        <v>242.6827560581833</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1065,12 +911,6 @@
       </c>
       <c r="B26" t="n">
         <v>0</v>
-      </c>
-      <c r="C26" t="n">
-        <v>-363.7686875247458</v>
-      </c>
-      <c r="D26" t="n">
-        <v>222.165938080634</v>
       </c>
     </row>
   </sheetData>
